--- a/Data_processed/industry/processing metals.xlsx
+++ b/Data_processed/industry/processing metals.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/processing metals.xlsx
+++ b/Data_processed/industry/processing metals.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/processing metals.xlsx
+++ b/Data_processed/industry/processing metals.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.09757826921</v>
+        <v>0.4978038533333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4978038533333334</v>
+        <v>8.9879769</v>
       </c>
       <c r="F2" t="n">
-        <v>8.9879769</v>
+        <v>1.3880092e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.02626804248635278</v>
+        <v>0.15</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>1.785</v>
       </c>
       <c r="F3" t="n">
-        <v>1.785</v>
+        <v>4.182398e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.00010635233775</v>
+        <v>0.0005425655133333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005425655133333334</v>
+        <v>0.0097961601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0097961601</v>
+        <v>1.5128166e-08</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.005317616827</v>
+        <v>0.02712827533333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02712827533333333</v>
+        <v>0.48980801</v>
       </c>
       <c r="F5" t="n">
-        <v>0.48980801</v>
+        <v>7.564083e-07</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.020472824779</v>
+        <v>0.10444386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.10444386</v>
+        <v>1.8857608</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8857608</v>
+        <v>2.912172e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.020472824779</v>
+        <v>0.10444386</v>
       </c>
       <c r="E7" t="n">
-        <v>0.10444386</v>
+        <v>1.8857608</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8857608</v>
+        <v>2.912172e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.020472824779</v>
+        <v>0.10444386</v>
       </c>
       <c r="E8" t="n">
-        <v>0.10444386</v>
+        <v>1.8857608</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8857608</v>
+        <v>2.912172e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.373613806438013</v>
+        <v>2.191879266666667</v>
       </c>
       <c r="E9" t="n">
-        <v>2.191879266666667</v>
+        <v>14.32693</v>
       </c>
       <c r="F9" t="n">
-        <v>14.32693</v>
+        <v>6.111540900000001e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.581785306368028</v>
+        <v>1.2585868</v>
       </c>
       <c r="E10" t="n">
-        <v>1.2585868</v>
+        <v>23.381371</v>
       </c>
       <c r="F10" t="n">
-        <v>23.381371</v>
+        <v>3.5092739e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.539119291017288</v>
+        <v>2.904382066666667</v>
       </c>
       <c r="E11" t="n">
-        <v>2.904382066666667</v>
+        <v>52.988883</v>
       </c>
       <c r="F11" t="n">
-        <v>52.988883</v>
+        <v>8.0981879e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5917395674985939</v>
+        <v>1.455989</v>
       </c>
       <c r="E12" t="n">
-        <v>1.455989</v>
+        <v>26.563015</v>
       </c>
       <c r="F12" t="n">
-        <v>26.563015</v>
+        <v>4.0596837e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.32593555200563</v>
+        <v>14.26535266666667</v>
       </c>
       <c r="E13" t="n">
-        <v>14.26535266666667</v>
+        <v>265.1968</v>
       </c>
       <c r="F13" t="n">
-        <v>265.1968</v>
+        <v>0.00039775589</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1421660163640113</v>
+        <v>0.6658606333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6658606333333333</v>
+        <v>12.019637</v>
       </c>
       <c r="F14" t="n">
-        <v>12.019637</v>
+        <v>1.8565961e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.03394580630844053</v>
+        <v>0.013306646</v>
       </c>
       <c r="E15" t="n">
-        <v>0.013306646</v>
+        <v>0.25347774</v>
       </c>
       <c r="F15" t="n">
-        <v>0.25347774</v>
+        <v>3.710246e-07</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.01539160286695066</v>
+        <v>0.006606481466666668</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006606481466666668</v>
+        <v>0.12599498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.12599498</v>
+        <v>1.8420623e-07</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.025158334262</v>
+        <v>3.975371933333333</v>
       </c>
       <c r="E17" t="n">
-        <v>3.975371933333333</v>
+        <v>51.534019</v>
       </c>
       <c r="F17" t="n">
-        <v>51.534019</v>
+        <v>0.00011084392</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.109921636191</v>
+        <v>3.955678933333333</v>
       </c>
       <c r="E18" t="n">
-        <v>3.955678933333333</v>
+        <v>52.609928</v>
       </c>
       <c r="F18" t="n">
-        <v>52.609928</v>
+        <v>0.00011029482</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.262297298711844</v>
+        <v>1.289735066666667</v>
       </c>
       <c r="E19" t="n">
-        <v>1.289735066666667</v>
+        <v>19.452543</v>
       </c>
       <c r="F19" t="n">
-        <v>19.452543</v>
+        <v>3.5961236e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35.5837465652776</v>
+        <v>209.99878</v>
       </c>
       <c r="E20" t="n">
-        <v>209.99878</v>
+        <v>3121.5433</v>
       </c>
       <c r="F20" t="n">
-        <v>3121.5433</v>
+        <v>0.0058553232</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0935138103002533</v>
+        <v>0.2259840733333333</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2259840733333333</v>
+        <v>2.5335283</v>
       </c>
       <c r="F21" t="n">
-        <v>2.5335283</v>
+        <v>6.3010355e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.08701149068182693</v>
+        <v>0.1856989333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1856989333333333</v>
+        <v>2.1905481</v>
       </c>
       <c r="F22" t="n">
-        <v>2.1905481</v>
+        <v>5.1777789e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.3978473469043</v>
+        <v>2.168163333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>2.168163333333334</v>
+        <v>45.36801</v>
       </c>
       <c r="F23" t="n">
-        <v>45.36801</v>
+        <v>6.0454147e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.11560499022</v>
+        <v>0.5897687066666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5897687066666667</v>
+        <v>10.648426</v>
       </c>
       <c r="F24" t="n">
-        <v>10.648426</v>
+        <v>1.6444317e-05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.31530808741</v>
+        <v>1.608571066666667</v>
       </c>
       <c r="E25" t="n">
-        <v>1.608571066666667</v>
+        <v>29.043166</v>
       </c>
       <c r="F25" t="n">
-        <v>29.043166</v>
+        <v>4.485123e-05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4939800148</v>
+        <v>2.520081133333334</v>
       </c>
       <c r="E26" t="n">
-        <v>2.520081133333334</v>
+        <v>45.500715</v>
       </c>
       <c r="F26" t="n">
-        <v>45.500715</v>
+        <v>7.0266549e-05</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.019462477424</v>
+        <v>0.09928948666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09928948666666666</v>
+        <v>1.7926973</v>
       </c>
       <c r="F27" t="n">
-        <v>1.7926973</v>
+        <v>2.7684544e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.00015952850541</v>
+        <v>0.0008138482666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0008138482666666667</v>
+        <v>0.01469424</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01469424</v>
+        <v>2.2692249e-08</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.009571710323000001</v>
+        <v>0.04883089600000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04883089600000001</v>
+        <v>0.88165441</v>
       </c>
       <c r="F29" t="n">
-        <v>0.88165441</v>
+        <v>1.3615349e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.012762280437</v>
+        <v>0.06510786133333334</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06510786133333334</v>
+        <v>1.1755392</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1755392</v>
+        <v>1.8153799e-06</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1699383762875</v>
+        <v>0.781887</v>
       </c>
       <c r="E31" t="n">
-        <v>0.781887</v>
+        <v>10.558057</v>
       </c>
       <c r="F31" t="n">
-        <v>10.558057</v>
+        <v>2.1801084e-05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.04280681603</v>
+        <v>0.21838262</v>
       </c>
       <c r="E32" t="n">
-        <v>0.21838262</v>
+        <v>3.9429545</v>
       </c>
       <c r="F32" t="n">
-        <v>3.9429545</v>
+        <v>6.0890868e-06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.012762280437</v>
+        <v>0.06510786133333334</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06510786133333334</v>
+        <v>1.1755392</v>
       </c>
       <c r="F33" t="n">
-        <v>1.1755392</v>
+        <v>1.8153799e-06</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.6516207663</v>
+        <v>3.324298866666667</v>
       </c>
       <c r="E34" t="n">
-        <v>3.324298866666667</v>
+        <v>60.021073</v>
       </c>
       <c r="F34" t="n">
-        <v>60.021073</v>
+        <v>9.2690274e-05</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.1456805425</v>
+        <v>5.844786933333333</v>
       </c>
       <c r="E35" t="n">
-        <v>5.844786933333333</v>
+        <v>105.52914</v>
       </c>
       <c r="F35" t="n">
-        <v>105.52914</v>
+        <v>0.00016296817</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.1261338711</v>
+        <v>0.6434826933333334</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6434826933333334</v>
+        <v>11.618246</v>
       </c>
       <c r="F36" t="n">
-        <v>11.618246</v>
+        <v>1.7942005e-05</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.27332550155</v>
+        <v>1.394393333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>1.394393333333333</v>
+        <v>25.176132</v>
       </c>
       <c r="F37" t="n">
-        <v>25.176132</v>
+        <v>3.8879387e-05</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.4099882634000001</v>
+        <v>2.091590066666667</v>
       </c>
       <c r="E38" t="n">
-        <v>2.091590066666667</v>
+        <v>37.764197</v>
       </c>
       <c r="F38" t="n">
-        <v>37.764197</v>
+        <v>5.831908e-05</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4865619406</v>
+        <v>2.4822372</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4822372</v>
+        <v>44.817433</v>
       </c>
       <c r="F39" t="n">
-        <v>44.817433</v>
+        <v>6.921136e-05</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6200341263</v>
+        <v>3.163156933333334</v>
       </c>
       <c r="E40" t="n">
-        <v>3.163156933333334</v>
+        <v>57.111614</v>
       </c>
       <c r="F40" t="n">
-        <v>57.111614</v>
+        <v>8.819720800000001e-05</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.012762280437</v>
+        <v>0.06510786133333334</v>
       </c>
       <c r="E41" t="n">
-        <v>0.06510786133333334</v>
+        <v>1.1755392</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1755392</v>
+        <v>1.8153799e-06</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1984472910464</v>
+        <v>0.9934892666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9934892666666667</v>
+        <v>16.121478</v>
       </c>
       <c r="F42" t="n">
-        <v>16.121478</v>
+        <v>2.7701117e-05</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.163223305417</v>
+        <v>0.8268114666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8268114666666667</v>
+        <v>12.446436</v>
       </c>
       <c r="F43" t="n">
-        <v>12.446436</v>
+        <v>2.3053698e-05</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.09188184015789999</v>
+        <v>0.4417856133333333</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4417856133333333</v>
+        <v>5.3308811</v>
       </c>
       <c r="F44" t="n">
-        <v>5.3308811</v>
+        <v>1.2318155e-05</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.07883366972</v>
+        <v>0.4021766866666667</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4021766866666667</v>
+        <v>7.2614037</v>
       </c>
       <c r="F45" t="n">
-        <v>7.2614037</v>
+        <v>1.1213753e-05</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.15766734463</v>
+        <v>0.8043534000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8043534000000001</v>
+        <v>14.522807</v>
       </c>
       <c r="F46" t="n">
-        <v>14.522807</v>
+        <v>2.2427506e-05</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.16537788904</v>
+        <v>0.8436894</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8436894</v>
+        <v>15.233029</v>
       </c>
       <c r="F47" t="n">
-        <v>15.233029</v>
+        <v>2.3524298e-05</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5255134815</v>
+        <v>2.6809518</v>
       </c>
       <c r="E48" t="n">
-        <v>2.6809518</v>
+        <v>48.405276</v>
       </c>
       <c r="F48" t="n">
-        <v>48.405276</v>
+        <v>7.4752051e-05</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.6816431742</v>
+        <v>8.579046000000002</v>
       </c>
       <c r="E49" t="n">
-        <v>8.579046000000002</v>
+        <v>154.89688</v>
       </c>
       <c r="F49" t="n">
-        <v>154.89688</v>
+        <v>0.00023920656</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.4173886132</v>
+        <v>12.332514</v>
       </c>
       <c r="E50" t="n">
-        <v>12.332514</v>
+        <v>222.66672</v>
       </c>
       <c r="F50" t="n">
-        <v>222.66672</v>
+        <v>0.00034386321</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.005264440679999999</v>
+        <v>0.02685699266666667</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02685699266666667</v>
+        <v>0.48490993</v>
       </c>
       <c r="F51" t="n">
-        <v>0.48490993</v>
+        <v>7.4884422e-07</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.01051026974</v>
+        <v>0.05361903666666667</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05361903666666667</v>
+        <v>0.9681055200000001</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9681055200000001</v>
+        <v>1.495041e-06</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.021031174233</v>
+        <v>0.1072923266666667</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1072923266666667</v>
+        <v>1.9371907</v>
       </c>
       <c r="F53" t="n">
-        <v>1.9371907</v>
+        <v>2.9915948e-06</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.04940066059000001</v>
+        <v>0.25202168</v>
       </c>
       <c r="E54" t="n">
-        <v>0.25202168</v>
+        <v>4.5503164</v>
       </c>
       <c r="F54" t="n">
-        <v>4.5503164</v>
+        <v>7.0270331e-06</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.012762280437</v>
+        <v>0.06510786133333334</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06510786133333334</v>
+        <v>1.1755392</v>
       </c>
       <c r="F55" t="n">
-        <v>1.1755392</v>
+        <v>1.8153799e-06</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.0648959777586931</v>
+        <v>0.2443520866666667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2443520866666667</v>
+        <v>2.6600648</v>
       </c>
       <c r="F56" t="n">
-        <v>2.6600648</v>
+        <v>6.8131846e-06</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2177,5 +2222,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>